--- a/S2 CP/ClinicalExam/CE_CP_T0.xlsx
+++ b/S2 CP/ClinicalExam/CE_CP_T0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GBW_MyPrograms\PredSim-workshop-smalll-2025\S2.  Surgical intervention for Cerebral Palsy\ClinicalExam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GBW_MyPrograms\PredSim-workshop-smalll-2025\S2 CP\ClinicalExam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA3A8C-6907-4140-A34B-D7968FC2D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8843E397-2369-4BCE-B65D-09A8575AF5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>pROM_Poplbi_L</t>
   </si>
@@ -114,9 +114,6 @@
     <t>pROM_Anklepf_R</t>
   </si>
   <si>
-    <t xml:space="preserve">Step 3 &amp; 4 </t>
-  </si>
-  <si>
     <t>Step 5</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>Step 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step  3 </t>
+  </si>
+  <si>
+    <t>Step 4</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD59"/>
+  <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,12 +569,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="12"/>
       <c r="G4" s="1"/>
@@ -587,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4"/>
@@ -721,7 +724,7 @@
     <row r="17" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
@@ -17109,7 +17112,7 @@
     </row>
     <row r="19" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B19" s="12"/>
     </row>
@@ -17130,70 +17133,74 @@
       </c>
     </row>
     <row r="22" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>8</v>
+      <c r="A22" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="B22" s="3">
-        <v>-80</v>
+      <c r="B22" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>5</v>
+      <c r="A23" s="9" t="s">
+        <v>30</v>
       </c>
-      <c r="B23" s="3">
-        <v>-65</v>
+      <c r="B23" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B24" s="10">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B25" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>1</v>
+      <c r="A26" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="B26" s="10">
-        <v>30</v>
-      </c>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>2</v>
+      <c r="A27" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="B27" s="10">
-        <v>30</v>
+      <c r="B27" s="3">
+        <v>-80</v>
       </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>26</v>
+      <c r="A28" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="3">
+        <v>-65</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>7</v>
+      <c r="A29" s="13" t="s">
+        <v>25</v>
       </c>
-      <c r="B29" s="3">
-        <v>-10</v>
-      </c>
+      <c r="B29" s="12"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3">
         <v>-10</v>
@@ -17202,18 +17209,18 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>22</v>
+      <c r="A31" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>23</v>
+      <c r="B31" s="3">
+        <v>-10</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>23</v>
@@ -17222,8 +17229,12 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
+      <c r="A33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="4"/>
     </row>
@@ -17255,31 +17266,31 @@
       <c r="A38"/>
       <c r="B38"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43"/>
@@ -17314,60 +17325,54 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
